--- a/data/output/FV2410_FV2404/UTILMD/55149.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55149.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11258" uniqueCount="700">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11279" uniqueCount="700">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2279,6 +2279,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U495" totalsRowShown="0">
+  <autoFilter ref="A1:U495"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2568,7 +2598,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -26568,5 +26601,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55149.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55149.xlsx
@@ -4171,7 +4171,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6713,7 +6713,7 @@
         <v>645</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6879,7 +6879,7 @@
         <v>646</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -7095,7 +7095,7 @@
         <v>647</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7299,7 +7299,7 @@
         <v>649</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7503,7 +7503,7 @@
         <v>651</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7707,7 +7707,7 @@
         <v>653</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7911,7 +7911,7 @@
         <v>655</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -8115,7 +8115,7 @@
         <v>656</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8711,7 +8711,7 @@
         <v>658</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -9273,7 +9273,7 @@
         <v>659</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -10343,7 +10343,7 @@
         <v>660</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -10655,7 +10655,7 @@
         <v>661</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10875,7 +10875,7 @@
         <v>663</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -11079,7 +11079,7 @@
         <v>664</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -11277,7 +11277,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -11829,7 +11829,7 @@
         <v>665</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -12135,7 +12135,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -12391,7 +12391,7 @@
         <v>666</v>
       </c>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -12919,7 +12919,7 @@
         <v>668</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -13331,7 +13331,7 @@
         <v>669</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -13531,7 +13531,7 @@
         <v>670</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -14763,7 +14763,7 @@
         <v>671</v>
       </c>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -15067,7 +15067,7 @@
         <v>672</v>
       </c>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -15983,7 +15983,7 @@
         <v>673</v>
       </c>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -16293,7 +16293,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -16509,7 +16509,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -16655,7 +16655,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -16809,7 +16809,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -17411,7 +17411,7 @@
         <v>675</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -17559,7 +17559,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -17717,7 +17717,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -18077,7 +18077,7 @@
         <v>676</v>
       </c>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -18225,7 +18225,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -18387,7 +18387,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -18599,7 +18599,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -18849,7 +18849,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -19203,7 +19203,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -19401,7 +19401,7 @@
         <v>677</v>
       </c>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -19549,7 +19549,7 @@
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -19707,7 +19707,7 @@
       </c>
       <c r="K305" s="2"/>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -20117,7 +20117,7 @@
         <v>678</v>
       </c>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -20265,7 +20265,7 @@
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -20429,7 +20429,7 @@
         <v>679</v>
       </c>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -20585,7 +20585,7 @@
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -21597,7 +21597,7 @@
         <v>681</v>
       </c>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -21811,7 +21811,7 @@
       </c>
       <c r="K345" s="2"/>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -21969,7 +21969,7 @@
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="4"/>
-      <c r="M348" s="2" t="s">
+      <c r="M348" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N348" s="2" t="s">
@@ -22181,7 +22181,7 @@
       </c>
       <c r="K352" s="2"/>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -22537,7 +22537,7 @@
         <v>682</v>
       </c>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -22841,7 +22841,7 @@
         <v>683</v>
       </c>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -22991,7 +22991,7 @@
         <v>684</v>
       </c>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="K372" s="2"/>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -23373,7 +23373,7 @@
         <v>686</v>
       </c>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -23539,7 +23539,7 @@
         <v>687</v>
       </c>
       <c r="L378" s="4"/>
-      <c r="M378" s="2" t="s">
+      <c r="M378" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N378" s="2" t="s">
@@ -23699,7 +23699,7 @@
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -23917,7 +23917,7 @@
         <v>689</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24329,7 +24329,7 @@
         <v>690</v>
       </c>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -24529,7 +24529,7 @@
         <v>670</v>
       </c>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -24729,7 +24729,7 @@
         <v>691</v>
       </c>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -25087,7 +25087,7 @@
         <v>692</v>
       </c>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -25287,7 +25287,7 @@
         <v>693</v>
       </c>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -25545,7 +25545,7 @@
         <v>694</v>
       </c>
       <c r="L417" s="4"/>
-      <c r="M417" s="2" t="s">
+      <c r="M417" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N417" s="2" t="s">
@@ -25693,7 +25693,7 @@
       </c>
       <c r="K420" s="2"/>
       <c r="L420" s="4"/>
-      <c r="M420" s="2" t="s">
+      <c r="M420" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N420" s="2" t="s">
@@ -25847,7 +25847,7 @@
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -25995,7 +25995,7 @@
         <v>695</v>
       </c>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -26155,7 +26155,7 @@
       </c>
       <c r="K429" s="2"/>
       <c r="L429" s="4"/>
-      <c r="M429" s="2" t="s">
+      <c r="M429" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N429" s="2" t="s">
@@ -26477,7 +26477,7 @@
         <v>697</v>
       </c>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -26625,7 +26625,7 @@
       </c>
       <c r="K438" s="2"/>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -26779,7 +26779,7 @@
       </c>
       <c r="K441" s="2"/>
       <c r="L441" s="4"/>
-      <c r="M441" s="2" t="s">
+      <c r="M441" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N441" s="2" t="s">
@@ -26925,7 +26925,7 @@
       </c>
       <c r="K444" s="2"/>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="K447" s="2"/>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -27455,7 +27455,7 @@
         <v>694</v>
       </c>
       <c r="L454" s="4"/>
-      <c r="M454" s="2" t="s">
+      <c r="M454" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N454" s="2" t="s">
@@ -27603,7 +27603,7 @@
       </c>
       <c r="K457" s="2"/>
       <c r="L457" s="4"/>
-      <c r="M457" s="2" t="s">
+      <c r="M457" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N457" s="2" t="s">
@@ -27757,7 +27757,7 @@
       </c>
       <c r="K460" s="2"/>
       <c r="L460" s="4"/>
-      <c r="M460" s="2" t="s">
+      <c r="M460" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N460" s="2" t="s">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="K463" s="2"/>
       <c r="L463" s="4"/>
-      <c r="M463" s="2" t="s">
+      <c r="M463" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N463" s="2" t="s">
@@ -28061,7 +28061,7 @@
       </c>
       <c r="K466" s="2"/>
       <c r="L466" s="4"/>
-      <c r="M466" s="2" t="s">
+      <c r="M466" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N466" s="2" t="s">
@@ -28217,7 +28217,7 @@
         <v>698</v>
       </c>
       <c r="L469" s="4"/>
-      <c r="M469" s="2" t="s">
+      <c r="M469" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N469" s="2" t="s">
@@ -28507,7 +28507,7 @@
       </c>
       <c r="K475" s="2"/>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -28667,7 +28667,7 @@
         <v>700</v>
       </c>
       <c r="L478" s="4"/>
-      <c r="M478" s="2" t="s">
+      <c r="M478" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N478" s="2" t="s">
@@ -28815,7 +28815,7 @@
       </c>
       <c r="K481" s="2"/>
       <c r="L481" s="4"/>
-      <c r="M481" s="2" t="s">
+      <c r="M481" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N481" s="2" t="s">
@@ -28973,7 +28973,7 @@
       </c>
       <c r="K484" s="2"/>
       <c r="L484" s="4"/>
-      <c r="M484" s="2" t="s">
+      <c r="M484" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N484" s="2" t="s">
@@ -29131,7 +29131,7 @@
       </c>
       <c r="K487" s="2"/>
       <c r="L487" s="4"/>
-      <c r="M487" s="2" t="s">
+      <c r="M487" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N487" s="2" t="s">
@@ -29277,7 +29277,7 @@
       </c>
       <c r="K490" s="2"/>
       <c r="L490" s="4"/>
-      <c r="M490" s="2" t="s">
+      <c r="M490" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N490" s="2" t="s">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="K493" s="2"/>
       <c r="L493" s="4"/>
-      <c r="M493" s="2" t="s">
+      <c r="M493" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N493" s="2"/>
